--- a/DB_Setup.xlsx
+++ b/DB_Setup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\FACULTATE\LICENTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCEE1DF-CD4F-4C65-A283-3F12868A686E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55344F0-44EA-406F-9E4E-F728A19BCDD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="15576" windowHeight="11904" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Universitati</t>
   </si>
@@ -93,39 +93,6 @@
     <t>Users</t>
   </si>
   <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Tip user</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>elev</t>
-  </si>
-  <si>
-    <t>student</t>
-  </si>
-  <si>
-    <t>profesor</t>
-  </si>
-  <si>
-    <t>consilier cariera</t>
-  </si>
-  <si>
-    <t>ID_tipuser - PK</t>
-  </si>
-  <si>
-    <t>ID_tipuser - FK</t>
-  </si>
-  <si>
-    <t>tip_nume       =&gt;</t>
-  </si>
-  <si>
     <t>Intrebari Formular Elevi</t>
   </si>
   <si>
@@ -142,6 +109,18 @@
   </si>
   <si>
     <t>5. In ce oras v-ati dori sa fie facultatea?</t>
+  </si>
+  <si>
+    <t>username - PK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tip </t>
+  </si>
+  <si>
+    <t>passwd</t>
+  </si>
+  <si>
+    <t>ID_fac - FK</t>
   </si>
 </sst>
 </file>
@@ -197,16 +176,14 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,33 +466,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="53.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="13" max="13" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" customWidth="1"/>
+    <col min="13" max="13" width="31.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -540,13 +517,13 @@
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -568,187 +545,151 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G7" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="H7" s="3"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="J7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="3"/>
       <c r="M7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="J8" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="G8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="M8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>2</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="3"/>
+      <c r="G9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="5"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="M9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C16" s="5" t="s">
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="2"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" t="s">
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" t="s">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" t="s">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>38</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="G11:H16"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="G7:H7"/>
+  <mergeCells count="11">
     <mergeCell ref="G1:H3"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="M4:N4"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="598" r:id="rId1"/>

--- a/DB_Setup.xlsx
+++ b/DB_Setup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\FACULTATE\LICENTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55344F0-44EA-406F-9E4E-F728A19BCDD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D203A2FC-3428-4FB2-9529-33E46C54C8EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="15576" windowHeight="11904" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
   <si>
     <t>Universitati</t>
   </si>
@@ -121,13 +121,103 @@
   </si>
   <si>
     <t>ID_fac - FK</t>
+  </si>
+  <si>
+    <t>Intrebari formular studenti:</t>
+  </si>
+  <si>
+    <t>1. Universitatea din București</t>
+  </si>
+  <si>
+    <t>Nivel de dificultate: 3</t>
+  </si>
+  <si>
+    <t>2. Universitatea Babeș-Bolyai din Cluj-Napoca</t>
+  </si>
+  <si>
+    <t>3. Universitatea Alexandru Ioan Cuza din Iași</t>
+  </si>
+  <si>
+    <t>4. Universitatea Politehnica din București</t>
+  </si>
+  <si>
+    <t>Nivel de dificultate: 4</t>
+  </si>
+  <si>
+    <t>5. Universitatea de Medicină și Farmacie "Carol Davila" din București</t>
+  </si>
+  <si>
+    <t>6. Universitatea de Vest din Timișoara</t>
+  </si>
+  <si>
+    <t>7. Universitatea Tehnică din Cluj-Napoca</t>
+  </si>
+  <si>
+    <t>8. Universitatea Babeș-Bolyai din Brașov</t>
+  </si>
+  <si>
+    <t>9. Universitatea de Științe Agricole și Medicină Veterinară din Cluj-Napoca</t>
+  </si>
+  <si>
+    <t>10. Universitatea de Științe Agricole și Medicină Veterinară "Ion Ionescu de la Brad" din Iași</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Îți dorești să studiezi într-un oraș sau într-o zonă geografică specifică? </t>
+  </si>
+  <si>
+    <t>Care este domeniul de studiu  în care ai absolvit licența ta?</t>
+  </si>
+  <si>
+    <t>La ce nivel de dificultate iti doresti sa se afle programele de masterat?</t>
+  </si>
+  <si>
+    <t>Desigur! Iată o listă de aspecte generice care pot fi relevante pentru o gamă largă de facultăți din România:</t>
+  </si>
+  <si>
+    <t>1. Inovație și cercetare: Interesul pentru descoperirea și aplicarea de noi cunoștințe în domeniul tău de studiu, explorarea noilor tehnologii și metode.</t>
+  </si>
+  <si>
+    <t>2. Dezvoltarea abilităților practice: Dorința de a dobândi cunoștințe și abilități practice relevante pentru domeniul tău, prin intermediul stagiiilor, proiectelor și practicilor profesionale.</t>
+  </si>
+  <si>
+    <t>3. Contribuția socială: Motivația de a aduce o schimbare pozitivă în societate prin intermediul carierei tale și de a aborda probleme sociale sau comunitare.</t>
+  </si>
+  <si>
+    <t>4. Creativitate și exprimare artistică: Pasionații de arte, design, muzică, teatru sau alte forme de expresie artistică pot fi motivați de posibilitatea de a-și dezvolta creativitatea și de a-și exprima talentele.</t>
+  </si>
+  <si>
+    <t>5. Abordarea interdisciplinară: Interesul pentru integrarea și aplicarea cunoștințelor din mai multe domenii, pentru a aborda probleme complexe dintr-o perspectivă holistă.</t>
+  </si>
+  <si>
+    <t>6. Dezvoltarea personală și profesională: Dorința de a învăța și de a te dezvolta într-un mediu academic stimulant, care oferă oportunități de creștere personală și profesională.</t>
+  </si>
+  <si>
+    <t>7. Colaborarea și comunicarea: Aptitudinea de a lucra în echipă, de a comunica eficient și de a construi relații solide cu colegii și profesorii.</t>
+  </si>
+  <si>
+    <t>8. Leadership și management: Interesul pentru dezvoltarea abilităților de leadership și management, pentru a ocupa roluri de conducere în viitorul tău profesional.</t>
+  </si>
+  <si>
+    <t>9. Impactul economic și antreprenoriatul: Motivația de a înțelege aspectele economice ale domeniului tău și de a explora oportunități antreprenoriale în acest domeniu.</t>
+  </si>
+  <si>
+    <t>10. Sustenabilitate și responsabilitate socială: Dorința de a contribui la dezvoltarea durabilă a societății și a mediului înconjurător, prin aplicarea principiilor de sustenabilitate în domeniul tău de studiu.</t>
+  </si>
+  <si>
+    <t>Acestea sunt doar câteva exemple de aspecte care pot fi relevante pentru diferite domenii de studiu. În funcție de interesul și pasiunile tale specifice, poți alege acele aspecte care te atrag cel mai mult și te motivează să continui să înveți într-un anumit domeniu.</t>
+  </si>
+  <si>
+    <t>Ce aspecte ale domeniului tău de studiu te pasionează cel mai mult și te motivează să continui să înveți?</t>
+  </si>
+  <si>
+    <t>Care este formatul in care vrei sa continui sa studiezi? Hybrid/online/fizic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +242,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFD1D5DB"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -173,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -183,7 +292,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,35 +592,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="53.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" customWidth="1"/>
-    <col min="13" max="13" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -517,13 +645,13 @@
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -545,7 +673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G7" s="3" t="s">
         <v>31</v>
       </c>
@@ -558,127 +686,386 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="5"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="M8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>2</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="5"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="M9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="F27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="F28" s="6"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="F29" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="F30" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>27</v>
       </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="F32" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="F33" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="F35" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B36" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="F36" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B37" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B38" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="F38" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B39" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="F41" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="F42" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="F43" s="6"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="F44" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="F45" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="F46" s="6"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="F47" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="F48" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="6:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="F49" s="6"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="6:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="F50" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="6:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="F51" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" spans="6:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="F52" s="6"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="6:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="F53" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="6:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="F54" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="6:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="F55" s="6"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="6:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="F56" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B66" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="12"/>
+    </row>
+    <row r="68" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B68" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B69" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B70" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B71" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B72" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B73" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B74" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B75" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B76" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B77" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="7"/>
+    </row>
+    <row r="79" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B79" s="11" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="15">
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
     <mergeCell ref="G1:H3"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J5:K5"/>
@@ -687,9 +1074,6 @@
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="598" r:id="rId1"/>

--- a/DB_Setup.xlsx
+++ b/DB_Setup.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\FACULTATE\LICENTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D203A2FC-3428-4FB2-9529-33E46C54C8EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3ECA5DC-7FEA-413B-91B3-0B8D3D081DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
   <si>
     <t>Universitati</t>
   </si>
@@ -211,6 +222,12 @@
   </si>
   <si>
     <t>Care este formatul in care vrei sa continui sa studiezi? Hybrid/online/fizic</t>
+  </si>
+  <si>
+    <t>intrebari formular profesor / consilier cariera</t>
+  </si>
+  <si>
+    <t>În ce domenii ați dori să se încadreze facultățile afișate?</t>
   </si>
 </sst>
 </file>
@@ -282,16 +299,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -302,15 +313,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -594,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,16 +625,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -636,20 +652,20 @@
       <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="M4" s="4" t="s">
+      <c r="K4" s="10"/>
+      <c r="M4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="4"/>
+      <c r="N4" s="10"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -661,27 +677,27 @@
       <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="J6" s="3" t="s">
+      <c r="H6" s="11"/>
+      <c r="J6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="3"/>
+      <c r="K6" s="11"/>
       <c r="M6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="J7" s="3" t="s">
+      <c r="H7" s="11"/>
+      <c r="J7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="3"/>
+      <c r="K7" s="11"/>
       <c r="M7" t="s">
         <v>17</v>
       </c>
@@ -696,8 +712,8 @@
       <c r="G8" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
       <c r="M8" t="s">
         <v>7</v>
       </c>
@@ -712,8 +728,8 @@
       <c r="G9" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
       <c r="M9" t="s">
         <v>15</v>
       </c>
@@ -761,311 +777,333 @@
       <c r="B27" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
     </row>
     <row r="28" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
     </row>
     <row r="29" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
     </row>
     <row r="30" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
     </row>
     <row r="31" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>27</v>
       </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
     </row>
     <row r="32" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
     </row>
     <row r="33" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
     </row>
     <row r="34" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
     </row>
     <row r="35" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
     </row>
     <row r="36" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="F36" s="6" t="s">
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="F36" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
     </row>
     <row r="37" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
     </row>
     <row r="38" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="F38" s="8" t="s">
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="F38" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
     </row>
     <row r="39" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="6" t="s">
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
     </row>
     <row r="40" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
     </row>
     <row r="41" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
     </row>
     <row r="42" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
     </row>
     <row r="43" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="F43" s="6"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
+      <c r="B43" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
     </row>
     <row r="44" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="F44" s="8" t="s">
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="F44" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
     </row>
     <row r="45" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="F45" s="6" t="s">
+      <c r="B45" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="F45" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
     </row>
     <row r="46" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="F46" s="6"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
     </row>
     <row r="47" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="F47" s="8" t="s">
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="F47" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
     </row>
     <row r="48" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="F48" s="6" t="s">
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="F48" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-    </row>
-    <row r="49" spans="6:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="F49" s="6"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-    </row>
-    <row r="50" spans="6:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="F50" s="8" t="s">
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="F50" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-    </row>
-    <row r="51" spans="6:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="F51" s="6" t="s">
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="F51" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-    </row>
-    <row r="52" spans="6:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="F52" s="6"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-    </row>
-    <row r="53" spans="6:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="F53" s="8" t="s">
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="F52" s="4"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="F53" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" spans="6:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="F54" s="6" t="s">
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="F54" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-    </row>
-    <row r="55" spans="6:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="F55" s="6"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-    </row>
-    <row r="56" spans="6:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="F56" s="5" t="s">
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="F55" s="4"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="F56" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="66" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="12"/>
+      <c r="B67" s="8"/>
     </row>
     <row r="68" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="69" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="70" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="71" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="72" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="73" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="74" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="75" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="76" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="77" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="7"/>
+      <c r="B78" s="5"/>
     </row>
     <row r="79" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B79" s="11" t="s">
+      <c r="B79" s="7" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
+  <mergeCells count="22">
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
     <mergeCell ref="G1:H3"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J5:K5"/>
@@ -1074,6 +1112,13 @@
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="598" r:id="rId1"/>

--- a/DB_Setup.xlsx
+++ b/DB_Setup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\FACULTATE\LICENTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3ECA5DC-7FEA-413B-91B3-0B8D3D081DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1C56BA-71E8-4D34-8427-7F6A64FE55D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="85">
   <si>
     <t>Universitati</t>
   </si>
@@ -228,6 +228,69 @@
   </si>
   <si>
     <t>În ce domenii ați dori să se încadreze facultățile afișate?</t>
+  </si>
+  <si>
+    <t>1. Facultatea de Automatică și Calculatoare:</t>
+  </si>
+  <si>
+    <t>Inovație și cercetare</t>
+  </si>
+  <si>
+    <t>Dezvoltarea abilităților practice</t>
+  </si>
+  <si>
+    <t>2. Facultatea de Electronică, Telecomunicații și Tehnologia Informației:</t>
+  </si>
+  <si>
+    <t>3. Facultatea de Energetică:</t>
+  </si>
+  <si>
+    <t>Contribuția socială</t>
+  </si>
+  <si>
+    <t>4. Facultatea de Inginerie Chimică și Protecția Mediului:</t>
+  </si>
+  <si>
+    <t>Sustenabilitate și responsabilitate socială</t>
+  </si>
+  <si>
+    <t>5. Facultatea de Inginerie Economică și Generală:</t>
+  </si>
+  <si>
+    <t>Dezvoltarea personală și profesională</t>
+  </si>
+  <si>
+    <t>6. Facultatea de Inginerie Mecanică și Mecatronică:</t>
+  </si>
+  <si>
+    <t>Abordarea interdisciplinară</t>
+  </si>
+  <si>
+    <t>7. Facultatea de Inginerie în Limbi Străine:</t>
+  </si>
+  <si>
+    <t>8. Facultatea de Inginerie și Management în Agricultură și Dezvoltare Rurală:</t>
+  </si>
+  <si>
+    <t>9. Facultatea de Inginerie și Management Industrial:</t>
+  </si>
+  <si>
+    <t>Leadership și management</t>
+  </si>
+  <si>
+    <t>10. Facultatea de Metrologie, Calitate și Management:</t>
+  </si>
+  <si>
+    <t>11. Facultatea de Telecomunicații:</t>
+  </si>
+  <si>
+    <t>12. Facultatea de Textile și Pielărie:</t>
+  </si>
+  <si>
+    <t>Creativitate și exprimare artistică</t>
+  </si>
+  <si>
+    <t>13. Facultatea de Transporturi:</t>
   </si>
 </sst>
 </file>
@@ -320,12 +383,12 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -608,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N79"/>
+  <dimension ref="A1:N146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46:D46"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,16 +688,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -652,20 +715,20 @@
       <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="M4" s="10" t="s">
+      <c r="K4" s="11"/>
+      <c r="M4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="10"/>
+      <c r="N4" s="11"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -677,27 +740,27 @@
       <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="J6" s="11" t="s">
+      <c r="H6" s="9"/>
+      <c r="J6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="11"/>
+      <c r="K6" s="9"/>
       <c r="M6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="J7" s="11" t="s">
+      <c r="H7" s="9"/>
+      <c r="J7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="11"/>
+      <c r="K7" s="9"/>
       <c r="M7" t="s">
         <v>17</v>
       </c>
@@ -712,8 +775,8 @@
       <c r="G8" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
       <c r="M8" t="s">
         <v>7</v>
       </c>
@@ -728,8 +791,8 @@
       <c r="G9" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
       <c r="M9" t="s">
         <v>15</v>
       </c>
@@ -849,11 +912,11 @@
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
       <c r="F36" s="4" t="s">
         <v>37</v>
       </c>
@@ -861,22 +924,22 @@
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
       <c r="F37" s="4"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
       <c r="F38" s="6" t="s">
         <v>38</v>
       </c>
@@ -884,12 +947,12 @@
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
       <c r="F39" s="4" t="s">
         <v>39</v>
       </c>
@@ -919,19 +982,19 @@
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
       <c r="F43" s="4"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
       <c r="F44" s="6" t="s">
         <v>34</v>
       </c>
@@ -939,11 +1002,11 @@
       <c r="H44" s="5"/>
     </row>
     <row r="45" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
       <c r="F45" s="4" t="s">
         <v>41</v>
       </c>
@@ -951,17 +1014,17 @@
       <c r="H45" s="5"/>
     </row>
     <row r="46" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
       <c r="F46" s="4"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
     </row>
     <row r="47" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
       <c r="F47" s="6" t="s">
         <v>38</v>
       </c>
@@ -969,9 +1032,9 @@
       <c r="H47" s="5"/>
     </row>
     <row r="48" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
       <c r="F48" s="4" t="s">
         <v>42</v>
       </c>
@@ -979,9 +1042,9 @@
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
       <c r="F49" s="4"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -1095,15 +1158,249 @@
         <v>59</v>
       </c>
     </row>
+    <row r="95" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B95" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B96" s="4"/>
+    </row>
+    <row r="97" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B97" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B98" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B99" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B100" s="4"/>
+    </row>
+    <row r="101" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B101" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B102" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B103" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B104" s="4"/>
+    </row>
+    <row r="105" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B105" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B106" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B107" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B108" s="4"/>
+    </row>
+    <row r="109" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B109" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B110" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B111" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B112" s="4"/>
+    </row>
+    <row r="113" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B113" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B114" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B115" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B116" s="4"/>
+    </row>
+    <row r="117" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B117" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B118" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B119" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B120" s="4"/>
+    </row>
+    <row r="121" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B121" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B122" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B123" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B124" s="4"/>
+    </row>
+    <row r="125" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B125" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B126" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B127" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B128" s="4"/>
+    </row>
+    <row r="129" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B129" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B130" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B131" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B132" s="4"/>
+    </row>
+    <row r="133" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B133" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B134" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B135" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B136" s="4"/>
+    </row>
+    <row r="137" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B137" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B138" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B139" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B140" s="4"/>
+    </row>
+    <row r="141" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B141" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B142" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B143" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B144" s="4"/>
+    </row>
+    <row r="145" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B145" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B146" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
     <mergeCell ref="G1:H3"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J5:K5"/>
@@ -1112,13 +1409,13 @@
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="598" r:id="rId1"/>
